--- a/analyses Oli/Within and between tables.xlsx
+++ b/analyses Oli/Within and between tables.xlsx
@@ -67,20 +67,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Change </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>(PP)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">within </t>
   </si>
   <si>
@@ -140,6 +126,20 @@
   </si>
   <si>
     <t>Single mom</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Change </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(∆PP)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -226,11 +226,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +286,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:G33"/>
     </sheetView>
   </sheetViews>
@@ -599,15 +616,15 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="5"/>
@@ -622,16 +639,16 @@
         <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -699,14 +716,14 @@
         <v>0.5</v>
       </c>
       <c r="E8" s="13">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F8" s="13">
         <v>25.1</v>
       </c>
       <c r="G8" s="14">
         <f t="shared" si="1"/>
-        <v>-0.5</v>
+        <v>-0.39999999999999858</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,7 +739,7 @@
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="14">
         <f>B18*100/B17</f>
@@ -737,19 +754,20 @@
       </c>
       <c r="E10" s="14">
         <f>E18*100/E17</f>
-        <v>92.420653718616762</v>
+        <v>92.029161603888213</v>
       </c>
       <c r="F10" s="14">
-        <v>99.9</v>
+        <f>F18*100/F17</f>
+        <v>90.437255599004629</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="1"/>
-        <v>7.4793462813832434</v>
+        <v>-1.5919060048835831</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="15">
         <f>B19*100/B17</f>
@@ -764,22 +782,22 @@
         <v>0.83292254791161469</v>
       </c>
       <c r="E11" s="15">
-        <f>E19*100/E18</f>
-        <v>8.1881086622245007</v>
+        <f>E19*100/E17</f>
+        <v>7.9708383961117875</v>
       </c>
       <c r="F11" s="15">
-        <f>F19*100/F18</f>
-        <v>8.4342629482071718E-2</v>
+        <f>F19*100/F17</f>
+        <v>9.5662993245645218</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="1"/>
-        <v>-8.1037660327424295</v>
+        <v>1.5954609284527344</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
         <v>0.31990000000000002</v>
@@ -789,15 +807,15 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <v>0.42220000000000002</v>
+        <v>0.41149999999999998</v>
       </c>
       <c r="F17" s="1">
-        <v>0.50209999999999999</v>
+        <v>0.56259999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>0.23619999999999999</v>
@@ -807,15 +825,15 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <v>0.39019999999999999</v>
+        <v>0.37869999999999998</v>
       </c>
       <c r="F18" s="1">
-        <v>0.502</v>
+        <v>0.50880000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>8.3769999999999997E-2</v>
@@ -825,10 +843,10 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>3.1949999999999999E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="F19" s="1">
-        <v>4.2339999999999999E-4</v>
+        <v>5.382E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -842,7 +860,7 @@
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
@@ -864,21 +882,21 @@
         <v>8</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="G24" s="11" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="18">
         <v>20.3</v>
@@ -891,19 +909,19 @@
         <v>-1.9000000000000021</v>
       </c>
       <c r="E25" s="13">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="F25" s="13">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="G25" s="14">
         <f>F25-E25</f>
-        <v>-8.6999999999999993</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="13">
         <v>19.3</v>
@@ -919,16 +937,16 @@
         <v>14.1</v>
       </c>
       <c r="F26" s="13">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" ref="G26:G30" si="3">F26-E26</f>
-        <v>-1.2999999999999989</v>
+        <v>-1.1999999999999993</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="13">
         <v>1.8</v>
@@ -941,19 +959,19 @@
         <v>-0.10000000000000009</v>
       </c>
       <c r="E27" s="13">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F27" s="13">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999999999994</v>
+        <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="13">
         <v>0.4</v>
@@ -969,16 +987,16 @@
         <v>0.6</v>
       </c>
       <c r="F28" s="13">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" si="3"/>
-        <v>0.50000000000000011</v>
+        <v>-0.39999999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="13">
         <v>28.4</v>
@@ -991,19 +1009,19 @@
         <v>2.5</v>
       </c>
       <c r="E29" s="13">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="F29" s="13">
         <v>29.5</v>
       </c>
       <c r="G29" s="14">
         <f t="shared" si="3"/>
-        <v>6.6999999999999993</v>
+        <v>6.6000000000000014</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="13">
         <v>29.9</v>
@@ -1016,14 +1034,14 @@
         <v>1.8000000000000007</v>
       </c>
       <c r="E30" s="13">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="F30" s="13">
         <v>35.700000000000003</v>
       </c>
       <c r="G30" s="14">
         <f t="shared" si="3"/>
-        <v>3.2000000000000028</v>
+        <v>3.6000000000000014</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="36" x14ac:dyDescent="0.25">
@@ -1039,7 +1057,7 @@
     </row>
     <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="14">
         <f>B40*100/B39</f>
@@ -1050,24 +1068,24 @@
         <v>63.061114115738235</v>
       </c>
       <c r="D32" s="14">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="E32" s="14">
         <f>E40*100/E39</f>
-        <v>86.088992974238877</v>
+        <v>85.549132947976886</v>
       </c>
       <c r="F32" s="14">
         <f>F40*100/F39</f>
-        <v>99.921057825143066</v>
+        <v>85.037540221666063</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" ref="G32:G33" si="4">F32-E32</f>
-        <v>13.832064850904189</v>
+        <v>-0.51159272631082331</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="15">
         <f>B41*100/B39</f>
@@ -1078,25 +1096,25 @@
         <v>36.938885884261765</v>
       </c>
       <c r="D33" s="15">
-        <f t="shared" ref="D32:D33" si="5">C33-B33</f>
+        <f t="shared" ref="D33" si="5">C33-B33</f>
         <v>0.35200369588750391</v>
       </c>
       <c r="E33" s="15">
-        <f>E41*100/E40</f>
-        <v>16.169749727965179</v>
+        <f>E41*100/E39</f>
+        <v>14.446050096339114</v>
       </c>
       <c r="F33" s="15">
-        <f>F41*100/F40</f>
-        <v>9.1250246889196127E-2</v>
+        <f>F41*100/F39</f>
+        <v>14.962459778333928</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="4"/>
-        <v>-16.078499481075983</v>
+        <v>0.51640968199481385</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1">
         <v>0.32169999999999999</v>
@@ -1106,15 +1124,15 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
-        <v>0.42699999999999999</v>
+        <v>0.41520000000000001</v>
       </c>
       <c r="F39" s="16">
-        <v>0.50670000000000004</v>
+        <v>0.55940000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1">
         <v>0.2039</v>
@@ -1124,16 +1142,15 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
-        <v>0.36759999999999998</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="F40" s="16">
-        <f>0.5063</f>
-        <v>0.50629999999999997</v>
+        <v>0.47570000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1">
         <v>0.1177</v>
@@ -1143,10 +1160,10 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>5.944E-2</v>
+        <v>5.9979999999999999E-2</v>
       </c>
       <c r="F41" s="17">
-        <v>4.6200000000000001E-4</v>
+        <v>8.3699999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analyses Oli/Within and between tables.xlsx
+++ b/analyses Oli/Within and between tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="39">
   <si>
     <t>Agegroup</t>
   </si>
@@ -141,6 +141,88 @@
       <t>(∆PP)</t>
     </r>
   </si>
+  <si>
+    <t>Reineinkommen</t>
+  </si>
+  <si>
+    <r>
+      <t>Total der Einkünfte (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Erwerb, Eigentum und Sozialleistungen)</t>
+    </r>
+  </si>
+  <si>
+    <t>Contribution of within age group Ineq to overall inequality</t>
+  </si>
+  <si>
+    <t>Contribution of within householdtyp Ineq to overall inequality</t>
+  </si>
+  <si>
+    <t>Between-group</t>
+  </si>
+  <si>
+    <t>1991 (share)</t>
+  </si>
+  <si>
+    <t>2011 (share)</t>
+  </si>
+  <si>
+    <t>Change (∆PP)</t>
+  </si>
+  <si>
+    <t>Nur Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between-group </t>
+  </si>
+  <si>
+    <t>Between-group differences</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1991 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Median)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2011 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Median)</t>
+    </r>
+  </si>
+  <si>
+    <t>within inequality</t>
+  </si>
+  <si>
+    <t>Median income</t>
+  </si>
+  <si>
+    <t>∆</t>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +232,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color theme="1"/>
@@ -182,6 +264,27 @@
       <name val="Lucida Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,11 +340,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +415,37 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,28 +748,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I41"/>
+  <dimension ref="A3:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:G33"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="H79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R104" sqref="O94:R104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="13" width="7.75" customWidth="1"/>
+    <col min="15" max="15" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="H3" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -629,8 +793,16 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>7</v>
@@ -650,8 +822,18 @@
       <c r="G5" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="H5" s="10"/>
+      <c r="I5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -675,8 +857,21 @@
         <f>F6-E6</f>
         <v>0.29999999999999893</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="J6" s="13">
+        <v>20.3</v>
+      </c>
+      <c r="K6" s="14">
+        <f>J6-I6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -700,8 +895,21 @@
         <f t="shared" ref="G7:G11" si="1">F7-E7</f>
         <v>0.10000000000000142</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="13">
+        <v>60.2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>57.8</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" ref="K7:K8" si="2">J7-I7</f>
+        <v>-2.4000000000000057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -725,8 +933,21 @@
         <f t="shared" si="1"/>
         <v>-0.39999999999999858</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="13">
+        <v>21.4</v>
+      </c>
+      <c r="J8" s="13">
+        <v>21.9</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -736,21 +957,27 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="H9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="14">
         <f>B18*100/B17</f>
-        <v>73.835573616755241</v>
+        <v>76.245321048085216</v>
       </c>
       <c r="C10" s="14">
         <f>C18*100/C17</f>
-        <v>72.967032967032964</v>
+        <v>74.669432201192635</v>
       </c>
       <c r="D10" s="14">
-        <v>-0.8</v>
+        <v>-1.5</v>
       </c>
       <c r="E10" s="14">
         <f>E18*100/E17</f>
@@ -764,22 +991,36 @@
         <f t="shared" si="1"/>
         <v>-1.5919060048835831</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="14">
+        <f>I18*100/I17</f>
+        <v>73.835573616755241</v>
+      </c>
+      <c r="J10" s="14">
+        <f>J18*100/J17</f>
+        <v>72.967032967032964</v>
+      </c>
+      <c r="K10" s="14">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="15">
         <f>B19*100/B17</f>
-        <v>26.186308221319159</v>
+        <v>23.803627987330838</v>
       </c>
       <c r="C11" s="15">
         <f>C19*100/C17</f>
-        <v>27.019230769230774</v>
+        <v>25.317604355716881</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="0"/>
-        <v>0.83292254791161469</v>
+        <v>1.513976368386043</v>
       </c>
       <c r="E11" s="15">
         <f>E19*100/E17</f>
@@ -793,17 +1034,31 @@
         <f t="shared" si="1"/>
         <v>1.5954609284527344</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="15">
+        <f>I19*100/I17</f>
+        <v>26.186308221319159</v>
+      </c>
+      <c r="J11" s="15">
+        <f>J19*100/J17</f>
+        <v>27.019230769230774</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" ref="K11" si="3">J11-I11</f>
+        <v>0.83292254791161469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>0.31990000000000002</v>
+        <v>0.3473</v>
       </c>
       <c r="C17" s="1">
-        <v>0.36399999999999999</v>
+        <v>0.38569999999999999</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -812,16 +1067,26 @@
       <c r="F17" s="1">
         <v>0.56259999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.31990000000000002</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>0.23619999999999999</v>
+        <v>0.26479999999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>0.2656</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -830,16 +1095,26 @@
       <c r="F18" s="1">
         <v>0.50880000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.23619999999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.2656</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1">
-        <v>8.3769999999999997E-2</v>
+        <v>8.2669999999999993E-2</v>
       </c>
       <c r="C19" s="1">
-        <v>9.8350000000000007E-2</v>
+        <v>9.7650000000000001E-2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -848,17 +1123,33 @@
       <c r="F19" s="1">
         <v>5.382E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
+        <v>8.3769999999999997E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>9.8350000000000007E-2</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -872,8 +1163,16 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
         <v>7</v>
@@ -893,8 +1192,18 @@
       <c r="G24" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H24" s="10"/>
+      <c r="I24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -918,8 +1227,21 @@
         <f>F25-E25</f>
         <v>-9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="18">
+        <v>20.3</v>
+      </c>
+      <c r="J25" s="13">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K25" s="14">
+        <f>J25-I25</f>
+        <v>-1.9000000000000021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -930,7 +1252,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="D26" s="14">
-        <f t="shared" ref="D26:D30" si="2">C26-B26</f>
+        <f t="shared" ref="D26:D30" si="4">C26-B26</f>
         <v>-2.4000000000000021</v>
       </c>
       <c r="E26" s="13">
@@ -940,11 +1262,24 @@
         <v>12.9</v>
       </c>
       <c r="G26" s="14">
-        <f t="shared" ref="G26:G30" si="3">F26-E26</f>
+        <f t="shared" ref="G26:G30" si="5">F26-E26</f>
         <v>-1.1999999999999993</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="13">
+        <v>19.3</v>
+      </c>
+      <c r="J26" s="13">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" ref="K26:K30" si="6">J26-I26</f>
+        <v>-2.4000000000000021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -955,7 +1290,7 @@
         <v>1.7</v>
       </c>
       <c r="D27" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="E27" s="13">
@@ -965,11 +1300,24 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G27" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50000000000000011</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="J27" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
@@ -980,7 +1328,7 @@
         <v>0.4</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E28" s="13">
@@ -990,11 +1338,24 @@
         <v>0.2</v>
       </c>
       <c r="G28" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.39999999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
@@ -1005,7 +1366,7 @@
         <v>30.9</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="E29" s="13">
@@ -1015,11 +1376,24 @@
         <v>29.5</v>
       </c>
       <c r="G29" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.6000000000000014</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="13">
+        <v>28.4</v>
+      </c>
+      <c r="J29" s="13">
+        <v>30.9</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
@@ -1030,7 +1404,7 @@
         <v>31.7</v>
       </c>
       <c r="D30" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="E30" s="13">
@@ -1040,11 +1414,24 @@
         <v>35.700000000000003</v>
       </c>
       <c r="G30" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6000000000000014</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="H30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="13">
+        <v>29.9</v>
+      </c>
+      <c r="J30" s="13">
+        <v>31.7</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="6"/>
+        <v>1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
@@ -1054,18 +1441,24 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="14">
         <f>B40*100/B39</f>
-        <v>63.382032949953377</v>
+        <v>67.87252368647718</v>
       </c>
       <c r="C32" s="14">
         <f>C40*100/C39</f>
-        <v>63.061114115738235</v>
+        <v>67.431777607753133</v>
       </c>
       <c r="D32" s="14">
         <v>-0.4</v>
@@ -1079,25 +1472,39 @@
         <v>85.037540221666063</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" ref="G32:G33" si="4">F32-E32</f>
+        <f t="shared" ref="G32:G33" si="7">F32-E32</f>
         <v>-0.51159272631082331</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="14">
+        <f>I40*100/I39</f>
+        <v>63.382032949953377</v>
+      </c>
+      <c r="J32" s="14">
+        <f>J40*100/J39</f>
+        <v>63.061114115738235</v>
+      </c>
+      <c r="K32" s="14">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="15">
         <f>B41*100/B39</f>
-        <v>36.586882188374261</v>
+        <v>32.127476313522827</v>
       </c>
       <c r="C33" s="15">
         <f>C41*100/C39</f>
-        <v>36.938885884261765</v>
+        <v>32.568222392246881</v>
       </c>
       <c r="D33" s="15">
-        <f t="shared" ref="D33" si="5">C33-B33</f>
-        <v>0.35200369588750391</v>
+        <f t="shared" ref="D33" si="8">C33-B33</f>
+        <v>0.4407460787240538</v>
       </c>
       <c r="E33" s="15">
         <f>E41*100/E39</f>
@@ -1108,19 +1515,34 @@
         <v>14.962459778333928</v>
       </c>
       <c r="G33" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.51640968199481385</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="15">
+        <f>I41*100/I39</f>
+        <v>36.586882188374261</v>
+      </c>
+      <c r="J33" s="15">
+        <f>J41*100/J39</f>
+        <v>36.938885884261765</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" ref="K33" si="9">J33-I33</f>
+        <v>0.35200369588750391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="1">
-        <v>0.32169999999999999</v>
+        <v>0.3483</v>
       </c>
       <c r="C39" s="1">
-        <v>0.36980000000000002</v>
+        <v>0.3921</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
@@ -1129,16 +1551,26 @@
       <c r="F39" s="16">
         <v>0.55940000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.36980000000000002</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1">
-        <v>0.2039</v>
+        <v>0.2364</v>
       </c>
       <c r="C40" s="1">
-        <v>0.23319999999999999</v>
+        <v>0.26440000000000002</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
@@ -1147,16 +1579,26 @@
       <c r="F40" s="16">
         <v>0.47570000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.2039</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="1">
-        <v>0.1177</v>
+        <v>0.1119</v>
       </c>
       <c r="C41" s="1">
-        <v>0.1366</v>
+        <v>0.12770000000000001</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
@@ -1165,10 +1607,1435 @@
       <c r="F41" s="17">
         <v>8.3699999999999997E-2</v>
       </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.1177</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.1366</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="47" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="6"/>
+      <c r="O48" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="J50" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="K50" s="14">
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="O50" s="10"/>
+      <c r="P50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="14">
+        <f t="shared" ref="B51:C53" si="10">B62*100/B$61</f>
+        <v>10.402993667242372</v>
+      </c>
+      <c r="C51" s="14">
+        <f t="shared" si="10"/>
+        <v>10.920404459424423</v>
+      </c>
+      <c r="D51" s="14">
+        <f>C51-B51</f>
+        <v>0.51741079218205144</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" ref="E51:F53" si="11">E62*100/E$61</f>
+        <v>4.7436208991494535</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="11"/>
+        <v>3.5087095627444009</v>
+      </c>
+      <c r="G51" s="14">
+        <f>F51-E51</f>
+        <v>-1.2349113364050526</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="13">
+        <v>62.6</v>
+      </c>
+      <c r="J51" s="13">
+        <v>62.7</v>
+      </c>
+      <c r="K51" s="14">
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P51" s="14">
+        <f t="shared" ref="P51:Q51" si="12">P62*100/P$61</f>
+        <v>4.7436208991494535</v>
+      </c>
+      <c r="Q51" s="14">
+        <f t="shared" si="12"/>
+        <v>3.5087095627444009</v>
+      </c>
+      <c r="R51" s="14">
+        <f>Q51-P51</f>
+        <v>-1.2349113364050526</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="14">
+        <f t="shared" si="10"/>
+        <v>53.955094991364426</v>
+      </c>
+      <c r="C52" s="14">
+        <f t="shared" si="10"/>
+        <v>51.892662691210788</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" ref="D52" si="13">C52-B52</f>
+        <v>-2.0624323001536382</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" si="11"/>
+        <v>53.521263669501828</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="11"/>
+        <v>60.865623889086386</v>
+      </c>
+      <c r="G52" s="14">
+        <f t="shared" ref="G52" si="14">F52-E52</f>
+        <v>7.3443602195845585</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="13">
+        <v>25.5</v>
+      </c>
+      <c r="J52" s="13">
+        <v>25.1</v>
+      </c>
+      <c r="K52" s="14">
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P52" s="14">
+        <f t="shared" ref="P52:Q52" si="15">P63*100/P$61</f>
+        <v>53.521263669501828</v>
+      </c>
+      <c r="Q52" s="14">
+        <f t="shared" si="15"/>
+        <v>60.865623889086386</v>
+      </c>
+      <c r="R52" s="14">
+        <f t="shared" ref="R52" si="16">Q52-P52</f>
+        <v>7.3443602195845585</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="14">
+        <f t="shared" si="10"/>
+        <v>11.8566493955095</v>
+      </c>
+      <c r="C53" s="14">
+        <f t="shared" si="10"/>
+        <v>11.858957739175525</v>
+      </c>
+      <c r="D53" s="14">
+        <f>C53-B53</f>
+        <v>2.3083436660247258E-3</v>
+      </c>
+      <c r="E53" s="14">
+        <f t="shared" si="11"/>
+        <v>33.756986634264884</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="11"/>
+        <v>26.057589761820122</v>
+      </c>
+      <c r="G53" s="14">
+        <f>F53-E53</f>
+        <v>-7.6993968724447619</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="O53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53" s="14">
+        <f t="shared" ref="P53:Q53" si="17">P64*100/P$61</f>
+        <v>33.756986634264884</v>
+      </c>
+      <c r="Q53" s="14">
+        <f t="shared" si="17"/>
+        <v>26.057589761820122</v>
+      </c>
+      <c r="R53" s="14">
+        <f>Q53-P53</f>
+        <v>-7.6993968724447619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="24">
+        <f>100-SUM(B51:B53)</f>
+        <v>23.78526194588369</v>
+      </c>
+      <c r="C54" s="24">
+        <f>100-SUM(C51:C53)</f>
+        <v>25.327975110189257</v>
+      </c>
+      <c r="D54" s="24">
+        <f>C54-B54</f>
+        <v>1.5427131643055674</v>
+      </c>
+      <c r="E54" s="24">
+        <f>100-SUM(E51:E53)</f>
+        <v>7.9781287970838264</v>
+      </c>
+      <c r="F54" s="24">
+        <f>100-SUM(F51:F53)</f>
+        <v>9.5680767863490814</v>
+      </c>
+      <c r="G54" s="24">
+        <f>F54-E54</f>
+        <v>1.589947989265255</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="14">
+        <v>92.029161603888213</v>
+      </c>
+      <c r="J54" s="14">
+        <v>90.437255599004629</v>
+      </c>
+      <c r="K54" s="14">
+        <v>-1.5919060048835831</v>
+      </c>
+      <c r="O54" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" s="24">
+        <f>100-SUM(P51:P53)</f>
+        <v>7.9781287970838264</v>
+      </c>
+      <c r="Q54" s="24">
+        <f>100-SUM(Q51:Q53)</f>
+        <v>9.5680767863490814</v>
+      </c>
+      <c r="R54" s="24">
+        <f>Q54-P54</f>
+        <v>1.589947989265255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="15">
+        <v>7.9708383961117875</v>
+      </c>
+      <c r="J55" s="15">
+        <v>9.5662993245645218</v>
+      </c>
+      <c r="K55" s="15">
+        <v>1.5954609284527344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="O61" t="s">
+        <v>11</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0.56259999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3.6139999999999999E-2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4.2119999999999998E-2</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="F62" s="17">
+        <v>1.9740000000000001E-2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.37869999999999998</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.50880000000000003</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="O62" t="s">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1">
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="Q62" s="17">
+        <v>1.9740000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.18744</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.20014999999999999</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
+        <v>0.22023999999999999</v>
+      </c>
+      <c r="F63" s="17">
+        <v>0.34243000000000001</v>
+      </c>
+      <c r="H63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="1">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="J63" s="1">
+        <v>5.382E-2</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="O63" t="s">
+        <v>2</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0.22023999999999999</v>
+      </c>
+      <c r="Q63" s="17">
+        <v>0.34243000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4.1189999999999997E-2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4.5740000000000003E-2</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
+        <v>0.13891000000000001</v>
+      </c>
+      <c r="F64" s="17">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="O64" t="s">
+        <v>3</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0.13891000000000001</v>
+      </c>
+      <c r="Q64" s="17">
+        <v>0.14660000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="H67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="O67" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P67" s="2"/>
+    </row>
+    <row r="68" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+    </row>
+    <row r="69" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="13">
+        <v>29.6</v>
+      </c>
+      <c r="J69" s="13">
+        <v>20.6</v>
+      </c>
+      <c r="K69" s="14">
+        <f>J69-I69</f>
+        <v>-9</v>
+      </c>
+      <c r="O69" s="10"/>
+      <c r="P69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q69" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="14">
+        <f>B81*100/B$80</f>
+        <v>13.229399942578237</v>
+      </c>
+      <c r="C70" s="14">
+        <f>C81*100/C$80</f>
+        <v>11.362968630451416</v>
+      </c>
+      <c r="D70" s="14">
+        <f>C70-B70</f>
+        <v>-1.8664313121268208</v>
+      </c>
+      <c r="E70" s="14">
+        <f>E81*100/E$80</f>
+        <v>34.085934489402696</v>
+      </c>
+      <c r="F70" s="14">
+        <f>F81*100/F$80</f>
+        <v>30.420235967107615</v>
+      </c>
+      <c r="G70" s="14">
+        <f>F70-E70</f>
+        <v>-3.6656985222950809</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="J70" s="13">
+        <v>12.9</v>
+      </c>
+      <c r="K70" s="14">
+        <f t="shared" ref="K70:K74" si="18">J70-I70</f>
+        <v>-1.1999999999999993</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P70" s="14">
+        <f>P81*100/P$80</f>
+        <v>34.085934489402696</v>
+      </c>
+      <c r="Q70" s="14">
+        <f>Q81*100/Q$80</f>
+        <v>30.420235967107615</v>
+      </c>
+      <c r="R70" s="14">
+        <f>Q70-P70</f>
+        <v>-3.6656985222950809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="14">
+        <f t="shared" ref="B71:C71" si="19">B82*100/B$80</f>
+        <v>14.509618145277061</v>
+      </c>
+      <c r="C71" s="14">
+        <f t="shared" si="19"/>
+        <v>11.542208620249935</v>
+      </c>
+      <c r="D71" s="14">
+        <f t="shared" ref="D71" si="20">C71-B71</f>
+        <v>-2.9674095250271257</v>
+      </c>
+      <c r="E71" s="14">
+        <f t="shared" ref="E71:E75" si="21">E82*100/E$80</f>
+        <v>14.274301541425817</v>
+      </c>
+      <c r="F71" s="14">
+        <f t="shared" ref="F71:F75" si="22">F82*100/F$80</f>
+        <v>15.465445119771184</v>
+      </c>
+      <c r="G71" s="14">
+        <f t="shared" ref="G71" si="23">F71-E71</f>
+        <v>1.1911435783453665</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="J71" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K71" s="14">
+        <f t="shared" si="18"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P71" s="14">
+        <f t="shared" ref="P71:Q75" si="24">P82*100/P$80</f>
+        <v>14.274301541425817</v>
+      </c>
+      <c r="Q71" s="14">
+        <f t="shared" si="24"/>
+        <v>15.465445119771184</v>
+      </c>
+      <c r="R71" s="14">
+        <f t="shared" ref="R71" si="25">Q71-P71</f>
+        <v>1.1911435783453665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="14">
+        <f t="shared" ref="B72:C72" si="26">B83*100/B$80</f>
+        <v>1.0111972437553833</v>
+      </c>
+      <c r="C72" s="14">
+        <f t="shared" si="26"/>
+        <v>0.93004335628666157</v>
+      </c>
+      <c r="D72" s="14">
+        <f>C72-B72</f>
+        <v>-8.1153887468721764E-2</v>
+      </c>
+      <c r="E72" s="14">
+        <f t="shared" si="21"/>
+        <v>0.2306840077071291</v>
+      </c>
+      <c r="F72" s="14">
+        <f t="shared" si="22"/>
+        <v>0.44413657490168035</v>
+      </c>
+      <c r="G72" s="14">
+        <f>F72-E72</f>
+        <v>0.21345256719455125</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="J72" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K72" s="14">
+        <f t="shared" si="18"/>
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="14">
+        <f t="shared" si="24"/>
+        <v>0.2306840077071291</v>
+      </c>
+      <c r="Q72" s="14">
+        <f t="shared" si="24"/>
+        <v>0.44413657490168035</v>
+      </c>
+      <c r="R72" s="14">
+        <f>Q72-P72</f>
+        <v>0.21345256719455125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="14">
+        <f>B84*100/B$80</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="C73" s="14">
+        <f>C84*100/C$80</f>
+        <v>0.22254526906401426</v>
+      </c>
+      <c r="D73" s="14">
+        <f>C73-B73</f>
+        <v>-7.3751027232282024E-2</v>
+      </c>
+      <c r="E73" s="14">
+        <f t="shared" si="21"/>
+        <v>0.39260597302504813</v>
+      </c>
+      <c r="F73" s="14">
+        <f t="shared" si="22"/>
+        <v>0.10325348587772615</v>
+      </c>
+      <c r="G73" s="14">
+        <f>F73-E73</f>
+        <v>-0.28935248714732198</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="13">
+        <v>22.9</v>
+      </c>
+      <c r="J73" s="13">
+        <v>29.5</v>
+      </c>
+      <c r="K73" s="14">
+        <f t="shared" si="18"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P73" s="14">
+        <f t="shared" si="24"/>
+        <v>0.39260597302504813</v>
+      </c>
+      <c r="Q73" s="14">
+        <f t="shared" si="24"/>
+        <v>0.10325348587772615</v>
+      </c>
+      <c r="R73" s="14">
+        <f>Q73-P73</f>
+        <v>-0.28935248714732198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="14">
+        <f t="shared" ref="B74:C75" si="27">B85*100/B$80</f>
+        <v>23.090439276485785</v>
+      </c>
+      <c r="C74" s="14">
+        <f t="shared" si="27"/>
+        <v>25.6764090793165</v>
+      </c>
+      <c r="D74" s="14">
+        <f t="shared" ref="D74" si="28">C74-B74</f>
+        <v>2.5859698028307143</v>
+      </c>
+      <c r="E74" s="14">
+        <f t="shared" si="21"/>
+        <v>15.341522157996147</v>
+      </c>
+      <c r="F74" s="14">
+        <f t="shared" si="22"/>
+        <v>17.045334286735788</v>
+      </c>
+      <c r="G74" s="14">
+        <f t="shared" ref="G74" si="29">F74-E74</f>
+        <v>1.7038121287396404</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="13">
+        <v>32.1</v>
+      </c>
+      <c r="J74" s="13">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K74" s="14">
+        <f t="shared" si="18"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="14">
+        <f t="shared" si="24"/>
+        <v>15.341522157996147</v>
+      </c>
+      <c r="Q74" s="14">
+        <f t="shared" si="24"/>
+        <v>17.045334286735788</v>
+      </c>
+      <c r="R74" s="14">
+        <f t="shared" ref="R74" si="30">Q74-P74</f>
+        <v>1.7038121287396404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="14">
+        <f t="shared" si="27"/>
+        <v>15.738730979041057</v>
+      </c>
+      <c r="C75" s="14">
+        <f t="shared" si="27"/>
+        <v>17.695970415710278</v>
+      </c>
+      <c r="D75" s="14">
+        <f>C75-B75</f>
+        <v>1.9572394366692212</v>
+      </c>
+      <c r="E75" s="14">
+        <f t="shared" si="21"/>
+        <v>21.233381502890175</v>
+      </c>
+      <c r="F75" s="14">
+        <f t="shared" si="22"/>
+        <v>21.558491240614945</v>
+      </c>
+      <c r="G75" s="14">
+        <f>F75-E75</f>
+        <v>0.32510973772476959</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="O75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P75" s="14">
+        <f t="shared" si="24"/>
+        <v>21.233381502890175</v>
+      </c>
+      <c r="Q75" s="14">
+        <f t="shared" si="24"/>
+        <v>21.558491240614945</v>
+      </c>
+      <c r="R75" s="14">
+        <f>Q75-P75</f>
+        <v>0.32510973772476959</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="24">
+        <f>100-SUM(B70:B75)</f>
+        <v>32.124318116566187</v>
+      </c>
+      <c r="C76" s="24">
+        <f t="shared" ref="C76:F76" si="31">100-SUM(C70:C75)</f>
+        <v>32.569854628921206</v>
+      </c>
+      <c r="D76" s="24">
+        <f t="shared" si="31"/>
+        <v>100.44553651235502</v>
+      </c>
+      <c r="E76" s="24">
+        <f t="shared" si="31"/>
+        <v>14.441570327552995</v>
+      </c>
+      <c r="F76" s="24">
+        <f t="shared" si="31"/>
+        <v>14.963103324991053</v>
+      </c>
+      <c r="G76" s="15">
+        <f>F76-E76</f>
+        <v>0.52153299743805803</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="14">
+        <f>I84*100/I83</f>
+        <v>85.549132947976886</v>
+      </c>
+      <c r="J76" s="14">
+        <f>J84*100/J83</f>
+        <v>85.037540221666063</v>
+      </c>
+      <c r="K76" s="14">
+        <f t="shared" ref="K76:K77" si="32">J76-I76</f>
+        <v>-0.51159272631082331</v>
+      </c>
+      <c r="O76" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P76" s="24">
+        <f t="shared" ref="P76:Q76" si="33">100-SUM(P70:P75)</f>
+        <v>14.441570327552995</v>
+      </c>
+      <c r="Q76" s="24">
+        <f t="shared" si="33"/>
+        <v>14.963103324991053</v>
+      </c>
+      <c r="R76" s="15">
+        <f>Q76-P76</f>
+        <v>0.52153299743805803</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H77" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="15">
+        <f>I85*100/I83</f>
+        <v>14.446050096339114</v>
+      </c>
+      <c r="J77" s="15">
+        <f>J85*100/J83</f>
+        <v>14.962459778333928</v>
+      </c>
+      <c r="K77" s="15">
+        <f t="shared" si="32"/>
+        <v>0.51640968199481385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80">
+        <v>0.3483</v>
+      </c>
+      <c r="C80">
+        <v>0.3921</v>
+      </c>
+      <c r="E80">
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="F80">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="O80" t="s">
+        <v>11</v>
+      </c>
+      <c r="P80">
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="Q80">
+        <v>0.55940000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>4.6078000000000001E-2</v>
+      </c>
+      <c r="C81">
+        <v>4.4554200000000002E-2</v>
+      </c>
+      <c r="E81">
+        <v>0.14152480000000001</v>
+      </c>
+      <c r="F81">
+        <v>0.17017080000000001</v>
+      </c>
+      <c r="O81" t="s">
+        <v>16</v>
+      </c>
+      <c r="P81">
+        <v>0.14152480000000001</v>
+      </c>
+      <c r="Q81">
+        <v>0.17017080000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82">
+        <v>5.0536999999999999E-2</v>
+      </c>
+      <c r="C82">
+        <v>4.5256999999999999E-2</v>
+      </c>
+      <c r="E82">
+        <v>5.9266899999999997E-2</v>
+      </c>
+      <c r="F82">
+        <v>8.6513699999999999E-2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>17</v>
+      </c>
+      <c r="P82">
+        <v>5.9266899999999997E-2</v>
+      </c>
+      <c r="Q82">
+        <v>8.6513699999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83">
+        <v>3.522E-3</v>
+      </c>
+      <c r="C83">
+        <v>3.6467000000000001E-3</v>
+      </c>
+      <c r="E83">
+        <v>9.5779999999999997E-4</v>
+      </c>
+      <c r="F83">
+        <v>2.4845000000000002E-3</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="J83" s="16">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="O83" t="s">
+        <v>21</v>
+      </c>
+      <c r="P83">
+        <v>9.5779999999999997E-4</v>
+      </c>
+      <c r="Q83">
+        <v>2.4845000000000002E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>1.0319999999999999E-3</v>
+      </c>
+      <c r="C84">
+        <v>8.7259999999999996E-4</v>
+      </c>
+      <c r="E84">
+        <v>1.6301E-3</v>
+      </c>
+      <c r="F84">
+        <v>5.7760000000000005E-4</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.35520000000000002</v>
+      </c>
+      <c r="J84" s="16">
+        <v>0.47570000000000001</v>
+      </c>
+      <c r="O84" t="s">
+        <v>18</v>
+      </c>
+      <c r="P84">
+        <v>1.6301E-3</v>
+      </c>
+      <c r="Q84">
+        <v>5.7760000000000005E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85">
+        <v>8.0423999999999995E-2</v>
+      </c>
+      <c r="C85">
+        <v>0.10067719999999999</v>
+      </c>
+      <c r="E85">
+        <v>6.3698000000000005E-2</v>
+      </c>
+      <c r="F85">
+        <v>9.5351599999999995E-2</v>
+      </c>
+      <c r="I85" s="1">
+        <v>5.9979999999999999E-2</v>
+      </c>
+      <c r="J85" s="17">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85">
+        <v>6.3698000000000005E-2</v>
+      </c>
+      <c r="Q85">
+        <v>9.5351599999999995E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86">
+        <v>5.4817999999999999E-2</v>
+      </c>
+      <c r="C86">
+        <v>6.93859E-2</v>
+      </c>
+      <c r="E86">
+        <v>8.8161000000000003E-2</v>
+      </c>
+      <c r="F86">
+        <v>0.1205982</v>
+      </c>
+      <c r="O86" t="s">
+        <v>19</v>
+      </c>
+      <c r="P86">
+        <v>8.8161000000000003E-2</v>
+      </c>
+      <c r="Q86">
+        <v>0.1205982</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87">
+        <v>0.1119</v>
+      </c>
+      <c r="C87">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="E87">
+        <v>5.9979999999999999E-2</v>
+      </c>
+      <c r="F87">
+        <v>8.3720000000000003E-2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>27</v>
+      </c>
+      <c r="P87">
+        <v>5.9979999999999999E-2</v>
+      </c>
+      <c r="Q87">
+        <v>8.3720000000000003E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O93" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O94" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="R94" s="27"/>
+    </row>
+    <row r="95" spans="1:19" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R95" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S95" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="O96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="O97" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="28">
+        <v>22500</v>
+      </c>
+      <c r="R97" s="28">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="98" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="O98" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="30">
+        <v>0.39</v>
+      </c>
+      <c r="R98" s="30">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="99" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="O99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="O100" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="28">
+        <v>55400</v>
+      </c>
+      <c r="R100" s="28">
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="101" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="O101" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="30">
+        <v>0.31</v>
+      </c>
+      <c r="R101" s="30">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="102" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="28"/>
+      <c r="R102" s="28"/>
+    </row>
+    <row r="103" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="O103" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="28">
+        <v>34800</v>
+      </c>
+      <c r="R103" s="28">
+        <v>49348</v>
+      </c>
+    </row>
+    <row r="104" spans="15:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O104" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="R104" s="32">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="105" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="28"/>
+      <c r="R105" s="28"/>
+    </row>
+    <row r="106" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="28"/>
+      <c r="R106" s="28"/>
+    </row>
+    <row r="107" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="28"/>
+      <c r="R107" s="28"/>
+    </row>
+    <row r="108" spans="15:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="O108" t="s">
+        <v>11</v>
+      </c>
+      <c r="P108" s="1">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="R108" s="28"/>
+    </row>
+    <row r="109" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O109" t="s">
+        <v>1</v>
+      </c>
+      <c r="P109" s="1">
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="Q109" s="17">
+        <v>1.9740000000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O110" t="s">
+        <v>2</v>
+      </c>
+      <c r="P110" s="1">
+        <v>0.22023999999999999</v>
+      </c>
+      <c r="Q110" s="17">
+        <v>0.34243000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O111" t="s">
+        <v>3</v>
+      </c>
+      <c r="P111" s="1">
+        <v>0.13891000000000001</v>
+      </c>
+      <c r="Q111" s="17">
+        <v>0.14660000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/analyses Oli/Within and between tables.xlsx
+++ b/analyses Oli/Within and between tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20760" windowHeight="10545"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="20760" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="39">
   <si>
     <t>Agegroup</t>
   </si>
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,6 +446,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="H79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R104" sqref="O94:R104"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="H61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68:R76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -759,9 +775,10 @@
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="18.75" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="13" width="7.75" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
     <col min="15" max="15" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2855,7 +2872,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H94" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
       <c r="O94" s="25" t="s">
         <v>0</v>
       </c>
@@ -2866,6 +2890,14 @@
       <c r="R94" s="27"/>
     </row>
     <row r="95" spans="1:19" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L95" s="34"/>
+      <c r="M95" s="37"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
       <c r="Q95" s="11" t="s">
@@ -2878,13 +2910,36 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H96" s="10"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="11">
+        <v>1991</v>
+      </c>
+      <c r="L96" s="11">
+        <v>2011</v>
+      </c>
+      <c r="M96" s="38"/>
       <c r="O96" s="3" t="s">
         <v>1</v>
       </c>
       <c r="P96" s="3"/>
     </row>
-    <row r="97" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K97" s="28">
+        <v>55600</v>
+      </c>
+      <c r="L97" s="28">
+        <v>71380</v>
+      </c>
+      <c r="M97" s="39"/>
       <c r="O97" s="29" t="s">
         <v>37</v>
       </c>
@@ -2896,7 +2951,18 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="98" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H98" s="3"/>
+      <c r="I98" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K98" s="30">
+        <v>0.39</v>
+      </c>
+      <c r="L98" s="30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M98" s="39"/>
       <c r="O98" s="29" t="s">
         <v>36</v>
       </c>
@@ -2908,13 +2974,37 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="99" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99" s="28">
+        <v>75700</v>
+      </c>
+      <c r="L99" s="28">
+        <v>85020</v>
+      </c>
+      <c r="M99" s="39"/>
       <c r="O99" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P99" s="3"/>
     </row>
-    <row r="100" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H100" s="3"/>
+      <c r="I100" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K100" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="L100" s="30">
+        <v>0.38</v>
+      </c>
+      <c r="M100" s="39"/>
       <c r="O100" s="29" t="s">
         <v>37</v>
       </c>
@@ -2926,7 +3016,20 @@
         <v>55500</v>
       </c>
     </row>
-    <row r="101" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K101" s="28">
+        <v>46100</v>
+      </c>
+      <c r="L101" s="28">
+        <v>48920</v>
+      </c>
+      <c r="M101" s="39"/>
       <c r="O101" s="29" t="s">
         <v>36</v>
       </c>
@@ -2938,7 +3041,18 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="102" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H102" s="3"/>
+      <c r="I102" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102" s="36">
+        <v>0.17</v>
+      </c>
+      <c r="L102" s="30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M102" s="39"/>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -2946,7 +3060,20 @@
       <c r="Q102" s="28"/>
       <c r="R102" s="28"/>
     </row>
-    <row r="103" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K103" s="28">
+        <v>73950</v>
+      </c>
+      <c r="L103" s="28">
+        <v>68700</v>
+      </c>
+      <c r="M103" s="39"/>
       <c r="O103" s="29" t="s">
         <v>37</v>
       </c>
@@ -2958,7 +3085,18 @@
         <v>49348</v>
       </c>
     </row>
-    <row r="104" spans="15:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H104" s="3"/>
+      <c r="I104" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K104" s="30">
+        <v>0.18</v>
+      </c>
+      <c r="L104" s="30">
+        <v>0.24</v>
+      </c>
+      <c r="M104" s="39"/>
       <c r="O104" s="31" t="s">
         <v>36</v>
       </c>
@@ -2970,25 +3108,74 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="105" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H105" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K105" s="28">
+        <v>38800</v>
+      </c>
+      <c r="L105" s="28">
+        <v>37200</v>
+      </c>
+      <c r="M105" s="39"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
       <c r="Q105" s="28"/>
       <c r="R105" s="28"/>
     </row>
-    <row r="106" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H106" s="3"/>
+      <c r="I106" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K106" s="30">
+        <v>0.36</v>
+      </c>
+      <c r="L106" s="30">
+        <v>0.46</v>
+      </c>
+      <c r="M106" s="39"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="28"/>
       <c r="R106" s="28"/>
     </row>
-    <row r="107" spans="15:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K107" s="28">
+        <v>31000</v>
+      </c>
+      <c r="L107" s="28">
+        <v>37950</v>
+      </c>
+      <c r="M107" s="39"/>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="28"/>
       <c r="R107" s="28"/>
     </row>
-    <row r="108" spans="15:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="8:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H108" s="35"/>
+      <c r="I108" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108" s="2"/>
+      <c r="K108" s="32">
+        <v>0.41</v>
+      </c>
+      <c r="L108" s="32">
+        <v>0.48</v>
+      </c>
+      <c r="M108" s="39"/>
       <c r="O108" t="s">
         <v>11</v>
       </c>
@@ -3000,7 +3187,7 @@
       </c>
       <c r="R108" s="28"/>
     </row>
-    <row r="109" spans="15:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="8:18" x14ac:dyDescent="0.2">
       <c r="O109" t="s">
         <v>1</v>
       </c>
@@ -3011,7 +3198,7 @@
         <v>1.9740000000000001E-2</v>
       </c>
     </row>
-    <row r="110" spans="15:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="8:18" x14ac:dyDescent="0.2">
       <c r="O110" t="s">
         <v>2</v>
       </c>
@@ -3022,7 +3209,7 @@
         <v>0.34243000000000001</v>
       </c>
     </row>
-    <row r="111" spans="15:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="8:18" x14ac:dyDescent="0.2">
       <c r="O111" t="s">
         <v>3</v>
       </c>

--- a/analyses Oli/Within and between tables.xlsx
+++ b/analyses Oli/Within and between tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="45">
   <si>
     <t>Agegroup</t>
   </si>
@@ -222,6 +222,24 @@
   </si>
   <si>
     <t>∆</t>
+  </si>
+  <si>
+    <t>Inequality</t>
+  </si>
+  <si>
+    <t>Theil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ∆PP</t>
+  </si>
+  <si>
+    <t>∆PP</t>
   </si>
 </sst>
 </file>
@@ -286,15 +304,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -360,11 +384,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,9 +505,45 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,9 +556,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -518,7 +596,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -590,7 +668,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -764,13 +842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S111"/>
+  <dimension ref="A3:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="H61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68:R76"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67:K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="7" width="9.5" customWidth="1"/>
@@ -2126,1097 +2204,1520 @@
         <v>0.14660000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H66" s="21" t="s">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="17"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="17"/>
+    </row>
+    <row r="66" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="17"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="17"/>
+    </row>
+    <row r="67" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="17"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="6"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="17"/>
+    </row>
+    <row r="68" spans="2:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="17"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="11">
+        <v>1991</v>
+      </c>
+      <c r="J68" s="11">
+        <v>2011</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="17"/>
+    </row>
+    <row r="69" spans="2:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="17"/>
+      <c r="H69" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="17"/>
+    </row>
+    <row r="70" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="17"/>
+      <c r="H70" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="45">
+        <v>11.9</v>
+      </c>
+      <c r="J70" s="45">
+        <v>12.2</v>
+      </c>
+      <c r="K70" s="45">
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="17"/>
+    </row>
+    <row r="71" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="17"/>
+      <c r="H71" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" s="47">
+        <v>62.6</v>
+      </c>
+      <c r="J71" s="47">
+        <v>62.7</v>
+      </c>
+      <c r="K71" s="47">
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="17"/>
+    </row>
+    <row r="72" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="17"/>
+      <c r="H72" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="49">
+        <v>25.5</v>
+      </c>
+      <c r="J72" s="49">
+        <v>25.1</v>
+      </c>
+      <c r="K72" s="49">
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="17"/>
+    </row>
+    <row r="73" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="H73" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I73" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="17"/>
+    </row>
+    <row r="74" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+      <c r="H74" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="44">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="J74" s="44">
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="K74" s="44">
+        <f>J74-I74</f>
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="17"/>
+    </row>
+    <row r="75" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+      <c r="H75" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="46">
+        <v>0.37869999999999998</v>
+      </c>
+      <c r="J75" s="46">
+        <v>0.50880000000000003</v>
+      </c>
+      <c r="K75" s="46">
+        <f t="shared" ref="K75:K76" si="18">J75-I75</f>
+        <v>0.13010000000000005</v>
+      </c>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="17"/>
+    </row>
+    <row r="76" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+      <c r="H76" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="48">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="J76" s="48">
+        <v>5.382E-2</v>
+      </c>
+      <c r="K76" s="48">
+        <f t="shared" si="18"/>
+        <v>2.1019999999999997E-2</v>
+      </c>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="17"/>
+    </row>
+    <row r="77" spans="2:17" ht="54" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="17"/>
+      <c r="H77" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K77" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="17"/>
+    </row>
+    <row r="78" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="17"/>
+      <c r="H78" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="45">
+        <v>92.029161603888213</v>
+      </c>
+      <c r="J78" s="45">
+        <v>90.437255599004629</v>
+      </c>
+      <c r="K78" s="45">
+        <v>-1.5919060048835831</v>
+      </c>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="17"/>
+    </row>
+    <row r="79" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="17"/>
+      <c r="H79" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="51">
+        <v>7.9708383961117875</v>
+      </c>
+      <c r="J79" s="51">
+        <v>9.5662993245645218</v>
+      </c>
+      <c r="K79" s="51">
+        <v>1.5954609284527344</v>
+      </c>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="17"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="17"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="17"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="17"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="17"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="17"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="17"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="17"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="17"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="17"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="17"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="17"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="17"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="17"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="17"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="17"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="17"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="17"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="17"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="17"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="17"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="17"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="17"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="17"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="17"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="17"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="17"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="17"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="17"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="17"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="17"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="17"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="17"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="17"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="17"/>
+    </row>
+    <row r="98" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H98" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21" t="s">
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="H67" s="3" t="s">
+      <c r="B99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="H99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="O67" s="21" t="s">
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="O99" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="P99" s="2"/>
+    </row>
+    <row r="100" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="8" t="s">
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="11" t="s">
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="J100" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="K100" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O68" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P68" s="8" t="s">
+      <c r="P100" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10"/>
-      <c r="B69" s="11" t="s">
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+    </row>
+    <row r="101" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10"/>
+      <c r="B101" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C101" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D101" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E101" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F101" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G101" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I101" s="13">
         <v>29.6</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J101" s="13">
         <v>20.6</v>
       </c>
-      <c r="K69" s="14">
-        <f>J69-I69</f>
+      <c r="K101" s="14">
+        <f>J101-I101</f>
         <v>-9</v>
       </c>
-      <c r="O69" s="10"/>
-      <c r="P69" s="11" t="s">
+      <c r="O101" s="10"/>
+      <c r="P101" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q69" s="11" t="s">
+      <c r="Q101" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R69" s="11" t="s">
+      <c r="R101" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="102" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="14">
-        <f>B81*100/B$80</f>
+      <c r="B102" s="14">
+        <f>B113*100/B$112</f>
         <v>13.229399942578237</v>
       </c>
-      <c r="C70" s="14">
-        <f>C81*100/C$80</f>
+      <c r="C102" s="14">
+        <f>C113*100/C$112</f>
         <v>11.362968630451416</v>
       </c>
-      <c r="D70" s="14">
-        <f>C70-B70</f>
+      <c r="D102" s="14">
+        <f>C102-B102</f>
         <v>-1.8664313121268208</v>
       </c>
-      <c r="E70" s="14">
-        <f>E81*100/E$80</f>
+      <c r="E102" s="14">
+        <f>E113*100/E$112</f>
         <v>34.085934489402696</v>
       </c>
-      <c r="F70" s="14">
-        <f>F81*100/F$80</f>
+      <c r="F102" s="14">
+        <f>F113*100/F$112</f>
         <v>30.420235967107615</v>
       </c>
-      <c r="G70" s="14">
-        <f>F70-E70</f>
+      <c r="G102" s="14">
+        <f>F102-E102</f>
         <v>-3.6656985222950809</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I102" s="13">
         <v>14.1</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J102" s="13">
         <v>12.9</v>
       </c>
-      <c r="K70" s="14">
-        <f t="shared" ref="K70:K74" si="18">J70-I70</f>
+      <c r="K102" s="14">
+        <f t="shared" ref="K102:K106" si="19">J102-I102</f>
         <v>-1.1999999999999993</v>
       </c>
-      <c r="O70" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P70" s="14">
-        <f>P81*100/P$80</f>
+      <c r="P102" s="14">
+        <f>P113*100/P$112</f>
         <v>34.085934489402696</v>
       </c>
-      <c r="Q70" s="14">
-        <f>Q81*100/Q$80</f>
+      <c r="Q102" s="14">
+        <f>Q113*100/Q$112</f>
         <v>30.420235967107615</v>
       </c>
-      <c r="R70" s="14">
-        <f>Q70-P70</f>
+      <c r="R102" s="14">
+        <f>Q102-P102</f>
         <v>-3.6656985222950809</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="103" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="14">
-        <f t="shared" ref="B71:C71" si="19">B82*100/B$80</f>
+      <c r="B103" s="14">
+        <f t="shared" ref="B103:C103" si="20">B114*100/B$112</f>
         <v>14.509618145277061</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C103" s="14">
+        <f t="shared" si="20"/>
+        <v>11.542208620249935</v>
+      </c>
+      <c r="D103" s="14">
+        <f t="shared" ref="D103" si="21">C103-B103</f>
+        <v>-2.9674095250271257</v>
+      </c>
+      <c r="E103" s="14">
+        <f t="shared" ref="E103:E107" si="22">E114*100/E$112</f>
+        <v>14.274301541425817</v>
+      </c>
+      <c r="F103" s="14">
+        <f t="shared" ref="F103:F107" si="23">F114*100/F$112</f>
+        <v>15.465445119771184</v>
+      </c>
+      <c r="G103" s="14">
+        <f t="shared" ref="G103" si="24">F103-E103</f>
+        <v>1.1911435783453665</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="J103" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K103" s="14">
         <f t="shared" si="19"/>
-        <v>11.542208620249935</v>
-      </c>
-      <c r="D71" s="14">
-        <f t="shared" ref="D71" si="20">C71-B71</f>
-        <v>-2.9674095250271257</v>
-      </c>
-      <c r="E71" s="14">
-        <f t="shared" ref="E71:E75" si="21">E82*100/E$80</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P103" s="14">
+        <f t="shared" ref="P103:Q107" si="25">P114*100/P$112</f>
         <v>14.274301541425817</v>
       </c>
-      <c r="F71" s="14">
-        <f t="shared" ref="F71:F75" si="22">F82*100/F$80</f>
+      <c r="Q103" s="14">
+        <f t="shared" si="25"/>
         <v>15.465445119771184</v>
       </c>
-      <c r="G71" s="14">
-        <f t="shared" ref="G71" si="23">F71-E71</f>
+      <c r="R103" s="14">
+        <f t="shared" ref="R103" si="26">Q103-P103</f>
         <v>1.1911435783453665</v>
       </c>
-      <c r="H71" s="3" t="s">
+    </row>
+    <row r="104" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I71" s="13">
+      <c r="B104" s="14">
+        <f t="shared" ref="B104:C104" si="27">B115*100/B$112</f>
+        <v>1.0111972437553833</v>
+      </c>
+      <c r="C104" s="14">
+        <f t="shared" si="27"/>
+        <v>0.93004335628666157</v>
+      </c>
+      <c r="D104" s="14">
+        <f>C104-B104</f>
+        <v>-8.1153887468721764E-2</v>
+      </c>
+      <c r="E104" s="14">
+        <f t="shared" si="22"/>
+        <v>0.2306840077071291</v>
+      </c>
+      <c r="F104" s="14">
+        <f t="shared" si="23"/>
+        <v>0.44413657490168035</v>
+      </c>
+      <c r="G104" s="14">
+        <f>F104-E104</f>
+        <v>0.21345256719455125</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="13">
         <v>0.6</v>
       </c>
-      <c r="J71" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K71" s="14">
-        <f t="shared" si="18"/>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P71" s="14">
-        <f t="shared" ref="P71:Q75" si="24">P82*100/P$80</f>
-        <v>14.274301541425817</v>
-      </c>
-      <c r="Q71" s="14">
-        <f t="shared" si="24"/>
-        <v>15.465445119771184</v>
-      </c>
-      <c r="R71" s="14">
-        <f t="shared" ref="R71" si="25">Q71-P71</f>
-        <v>1.1911435783453665</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="J104" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K104" s="14">
+        <f t="shared" si="19"/>
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="O104" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="14">
-        <f t="shared" ref="B72:C72" si="26">B83*100/B$80</f>
-        <v>1.0111972437553833</v>
-      </c>
-      <c r="C72" s="14">
-        <f t="shared" si="26"/>
-        <v>0.93004335628666157</v>
-      </c>
-      <c r="D72" s="14">
-        <f>C72-B72</f>
-        <v>-8.1153887468721764E-2</v>
-      </c>
-      <c r="E72" s="14">
-        <f t="shared" si="21"/>
+      <c r="P104" s="14">
+        <f t="shared" si="25"/>
         <v>0.2306840077071291</v>
       </c>
-      <c r="F72" s="14">
+      <c r="Q104" s="14">
+        <f t="shared" si="25"/>
+        <v>0.44413657490168035</v>
+      </c>
+      <c r="R104" s="14">
+        <f>Q104-P104</f>
+        <v>0.21345256719455125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="14">
+        <f>B116*100/B$112</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="C105" s="14">
+        <f>C116*100/C$112</f>
+        <v>0.22254526906401426</v>
+      </c>
+      <c r="D105" s="14">
+        <f>C105-B105</f>
+        <v>-7.3751027232282024E-2</v>
+      </c>
+      <c r="E105" s="14">
         <f t="shared" si="22"/>
-        <v>0.44413657490168035</v>
-      </c>
-      <c r="G72" s="14">
-        <f>F72-E72</f>
-        <v>0.21345256719455125</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="J72" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K72" s="14">
-        <f t="shared" si="18"/>
-        <v>-0.39999999999999997</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P72" s="14">
-        <f t="shared" si="24"/>
-        <v>0.2306840077071291</v>
-      </c>
-      <c r="Q72" s="14">
-        <f t="shared" si="24"/>
-        <v>0.44413657490168035</v>
-      </c>
-      <c r="R72" s="14">
-        <f>Q72-P72</f>
-        <v>0.21345256719455125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="14">
-        <f>B84*100/B$80</f>
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="C73" s="14">
-        <f>C84*100/C$80</f>
-        <v>0.22254526906401426</v>
-      </c>
-      <c r="D73" s="14">
-        <f>C73-B73</f>
-        <v>-7.3751027232282024E-2</v>
-      </c>
-      <c r="E73" s="14">
-        <f t="shared" si="21"/>
         <v>0.39260597302504813</v>
       </c>
-      <c r="F73" s="14">
-        <f t="shared" si="22"/>
+      <c r="F105" s="14">
+        <f t="shared" si="23"/>
         <v>0.10325348587772615</v>
       </c>
-      <c r="G73" s="14">
-        <f>F73-E73</f>
+      <c r="G105" s="14">
+        <f>F105-E105</f>
         <v>-0.28935248714732198</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" s="13">
-        <v>22.9</v>
-      </c>
-      <c r="J73" s="13">
-        <v>29.5</v>
-      </c>
-      <c r="K73" s="14">
-        <f t="shared" si="18"/>
-        <v>6.6000000000000014</v>
-      </c>
-      <c r="O73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P73" s="14">
-        <f t="shared" si="24"/>
-        <v>0.39260597302504813</v>
-      </c>
-      <c r="Q73" s="14">
-        <f t="shared" si="24"/>
-        <v>0.10325348587772615</v>
-      </c>
-      <c r="R73" s="14">
-        <f>Q73-P73</f>
-        <v>-0.28935248714732198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" s="14">
-        <f t="shared" ref="B74:C75" si="27">B85*100/B$80</f>
-        <v>23.090439276485785</v>
-      </c>
-      <c r="C74" s="14">
-        <f t="shared" si="27"/>
-        <v>25.6764090793165</v>
-      </c>
-      <c r="D74" s="14">
-        <f t="shared" ref="D74" si="28">C74-B74</f>
-        <v>2.5859698028307143</v>
-      </c>
-      <c r="E74" s="14">
-        <f t="shared" si="21"/>
-        <v>15.341522157996147</v>
-      </c>
-      <c r="F74" s="14">
-        <f t="shared" si="22"/>
-        <v>17.045334286735788</v>
-      </c>
-      <c r="G74" s="14">
-        <f t="shared" ref="G74" si="29">F74-E74</f>
-        <v>1.7038121287396404</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" s="13">
-        <v>32.1</v>
-      </c>
-      <c r="J74" s="13">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="K74" s="14">
-        <f t="shared" si="18"/>
-        <v>3.6000000000000014</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74" s="14">
-        <f t="shared" si="24"/>
-        <v>15.341522157996147</v>
-      </c>
-      <c r="Q74" s="14">
-        <f t="shared" si="24"/>
-        <v>17.045334286735788</v>
-      </c>
-      <c r="R74" s="14">
-        <f t="shared" ref="R74" si="30">Q74-P74</f>
-        <v>1.7038121287396404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="54" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="14">
-        <f t="shared" si="27"/>
-        <v>15.738730979041057</v>
-      </c>
-      <c r="C75" s="14">
-        <f t="shared" si="27"/>
-        <v>17.695970415710278</v>
-      </c>
-      <c r="D75" s="14">
-        <f>C75-B75</f>
-        <v>1.9572394366692212</v>
-      </c>
-      <c r="E75" s="14">
-        <f t="shared" si="21"/>
-        <v>21.233381502890175</v>
-      </c>
-      <c r="F75" s="14">
-        <f t="shared" si="22"/>
-        <v>21.558491240614945</v>
-      </c>
-      <c r="G75" s="14">
-        <f>F75-E75</f>
-        <v>0.32510973772476959</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="O75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P75" s="14">
-        <f t="shared" si="24"/>
-        <v>21.233381502890175</v>
-      </c>
-      <c r="Q75" s="14">
-        <f t="shared" si="24"/>
-        <v>21.558491240614945</v>
-      </c>
-      <c r="R75" s="14">
-        <f>Q75-P75</f>
-        <v>0.32510973772476959</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="24">
-        <f>100-SUM(B70:B75)</f>
-        <v>32.124318116566187</v>
-      </c>
-      <c r="C76" s="24">
-        <f t="shared" ref="C76:F76" si="31">100-SUM(C70:C75)</f>
-        <v>32.569854628921206</v>
-      </c>
-      <c r="D76" s="24">
-        <f t="shared" si="31"/>
-        <v>100.44553651235502</v>
-      </c>
-      <c r="E76" s="24">
-        <f t="shared" si="31"/>
-        <v>14.441570327552995</v>
-      </c>
-      <c r="F76" s="24">
-        <f t="shared" si="31"/>
-        <v>14.963103324991053</v>
-      </c>
-      <c r="G76" s="15">
-        <f>F76-E76</f>
-        <v>0.52153299743805803</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" s="14">
-        <f>I84*100/I83</f>
-        <v>85.549132947976886</v>
-      </c>
-      <c r="J76" s="14">
-        <f>J84*100/J83</f>
-        <v>85.037540221666063</v>
-      </c>
-      <c r="K76" s="14">
-        <f t="shared" ref="K76:K77" si="32">J76-I76</f>
-        <v>-0.51159272631082331</v>
-      </c>
-      <c r="O76" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="P76" s="24">
-        <f t="shared" ref="P76:Q76" si="33">100-SUM(P70:P75)</f>
-        <v>14.441570327552995</v>
-      </c>
-      <c r="Q76" s="24">
-        <f t="shared" si="33"/>
-        <v>14.963103324991053</v>
-      </c>
-      <c r="R76" s="15">
-        <f>Q76-P76</f>
-        <v>0.52153299743805803</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H77" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I77" s="15">
-        <f>I85*100/I83</f>
-        <v>14.446050096339114</v>
-      </c>
-      <c r="J77" s="15">
-        <f>J85*100/J83</f>
-        <v>14.962459778333928</v>
-      </c>
-      <c r="K77" s="15">
-        <f t="shared" si="32"/>
-        <v>0.51640968199481385</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80">
-        <v>0.3483</v>
-      </c>
-      <c r="C80">
-        <v>0.3921</v>
-      </c>
-      <c r="E80">
-        <v>0.41520000000000001</v>
-      </c>
-      <c r="F80">
-        <v>0.55940000000000001</v>
-      </c>
-      <c r="O80" t="s">
-        <v>11</v>
-      </c>
-      <c r="P80">
-        <v>0.41520000000000001</v>
-      </c>
-      <c r="Q80">
-        <v>0.55940000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81">
-        <v>4.6078000000000001E-2</v>
-      </c>
-      <c r="C81">
-        <v>4.4554200000000002E-2</v>
-      </c>
-      <c r="E81">
-        <v>0.14152480000000001</v>
-      </c>
-      <c r="F81">
-        <v>0.17017080000000001</v>
-      </c>
-      <c r="O81" t="s">
-        <v>16</v>
-      </c>
-      <c r="P81">
-        <v>0.14152480000000001</v>
-      </c>
-      <c r="Q81">
-        <v>0.17017080000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82">
-        <v>5.0536999999999999E-2</v>
-      </c>
-      <c r="C82">
-        <v>4.5256999999999999E-2</v>
-      </c>
-      <c r="E82">
-        <v>5.9266899999999997E-2</v>
-      </c>
-      <c r="F82">
-        <v>8.6513699999999999E-2</v>
-      </c>
-      <c r="O82" t="s">
-        <v>17</v>
-      </c>
-      <c r="P82">
-        <v>5.9266899999999997E-2</v>
-      </c>
-      <c r="Q82">
-        <v>8.6513699999999999E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83">
-        <v>3.522E-3</v>
-      </c>
-      <c r="C83">
-        <v>3.6467000000000001E-3</v>
-      </c>
-      <c r="E83">
-        <v>9.5779999999999997E-4</v>
-      </c>
-      <c r="F83">
-        <v>2.4845000000000002E-3</v>
-      </c>
-      <c r="I83" s="1">
-        <v>0.41520000000000001</v>
-      </c>
-      <c r="J83" s="16">
-        <v>0.55940000000000001</v>
-      </c>
-      <c r="O83" t="s">
-        <v>21</v>
-      </c>
-      <c r="P83">
-        <v>9.5779999999999997E-4</v>
-      </c>
-      <c r="Q83">
-        <v>2.4845000000000002E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84">
-        <v>1.0319999999999999E-3</v>
-      </c>
-      <c r="C84">
-        <v>8.7259999999999996E-4</v>
-      </c>
-      <c r="E84">
-        <v>1.6301E-3</v>
-      </c>
-      <c r="F84">
-        <v>5.7760000000000005E-4</v>
-      </c>
-      <c r="I84" s="1">
-        <v>0.35520000000000002</v>
-      </c>
-      <c r="J84" s="16">
-        <v>0.47570000000000001</v>
-      </c>
-      <c r="O84" t="s">
-        <v>18</v>
-      </c>
-      <c r="P84">
-        <v>1.6301E-3</v>
-      </c>
-      <c r="Q84">
-        <v>5.7760000000000005E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85">
-        <v>8.0423999999999995E-2</v>
-      </c>
-      <c r="C85">
-        <v>0.10067719999999999</v>
-      </c>
-      <c r="E85">
-        <v>6.3698000000000005E-2</v>
-      </c>
-      <c r="F85">
-        <v>9.5351599999999995E-2</v>
-      </c>
-      <c r="I85" s="1">
-        <v>5.9979999999999999E-2</v>
-      </c>
-      <c r="J85" s="17">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="O85" t="s">
-        <v>20</v>
-      </c>
-      <c r="P85">
-        <v>6.3698000000000005E-2</v>
-      </c>
-      <c r="Q85">
-        <v>9.5351599999999995E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86">
-        <v>5.4817999999999999E-2</v>
-      </c>
-      <c r="C86">
-        <v>6.93859E-2</v>
-      </c>
-      <c r="E86">
-        <v>8.8161000000000003E-2</v>
-      </c>
-      <c r="F86">
-        <v>0.1205982</v>
-      </c>
-      <c r="O86" t="s">
-        <v>19</v>
-      </c>
-      <c r="P86">
-        <v>8.8161000000000003E-2</v>
-      </c>
-      <c r="Q86">
-        <v>0.1205982</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87">
-        <v>0.1119</v>
-      </c>
-      <c r="C87">
-        <v>0.12770000000000001</v>
-      </c>
-      <c r="E87">
-        <v>5.9979999999999999E-2</v>
-      </c>
-      <c r="F87">
-        <v>8.3720000000000003E-2</v>
-      </c>
-      <c r="O87" t="s">
-        <v>27</v>
-      </c>
-      <c r="P87">
-        <v>5.9979999999999999E-2</v>
-      </c>
-      <c r="Q87">
-        <v>8.3720000000000003E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O93" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H94" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="O94" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="R94" s="27"/>
-    </row>
-    <row r="95" spans="1:19" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L95" s="34"/>
-      <c r="M95" s="37"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-      <c r="Q95" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="R95" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S95" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H96" s="10"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="11">
-        <v>1991</v>
-      </c>
-      <c r="L96" s="11">
-        <v>2011</v>
-      </c>
-      <c r="M96" s="38"/>
-      <c r="O96" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H97" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K97" s="28">
-        <v>55600</v>
-      </c>
-      <c r="L97" s="28">
-        <v>71380</v>
-      </c>
-      <c r="M97" s="39"/>
-      <c r="O97" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="28">
-        <v>22500</v>
-      </c>
-      <c r="R97" s="28">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="98" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H98" s="3"/>
-      <c r="I98" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K98" s="30">
-        <v>0.39</v>
-      </c>
-      <c r="L98" s="30">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M98" s="39"/>
-      <c r="O98" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="30">
-        <v>0.39</v>
-      </c>
-      <c r="R98" s="30">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="99" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H99" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I99" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K99" s="28">
-        <v>75700</v>
-      </c>
-      <c r="L99" s="28">
-        <v>85020</v>
-      </c>
-      <c r="M99" s="39"/>
-      <c r="O99" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H100" s="3"/>
-      <c r="I100" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K100" s="30">
-        <v>0.26</v>
-      </c>
-      <c r="L100" s="30">
-        <v>0.38</v>
-      </c>
-      <c r="M100" s="39"/>
-      <c r="O100" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="28">
-        <v>55400</v>
-      </c>
-      <c r="R100" s="28">
-        <v>55500</v>
-      </c>
-    </row>
-    <row r="101" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H101" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I101" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K101" s="28">
-        <v>46100</v>
-      </c>
-      <c r="L101" s="28">
-        <v>48920</v>
-      </c>
-      <c r="M101" s="39"/>
-      <c r="O101" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="30">
-        <v>0.31</v>
-      </c>
-      <c r="R101" s="30">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="102" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H102" s="3"/>
-      <c r="I102" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K102" s="36">
-        <v>0.17</v>
-      </c>
-      <c r="L102" s="30">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M102" s="39"/>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="28"/>
-      <c r="R102" s="28"/>
-    </row>
-    <row r="103" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H103" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I103" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K103" s="28">
-        <v>73950</v>
-      </c>
-      <c r="L103" s="28">
-        <v>68700</v>
-      </c>
-      <c r="M103" s="39"/>
-      <c r="O103" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="28">
-        <v>34800</v>
-      </c>
-      <c r="R103" s="28">
-        <v>49348</v>
-      </c>
-    </row>
-    <row r="104" spans="8:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H104" s="3"/>
-      <c r="I104" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K104" s="30">
-        <v>0.18</v>
-      </c>
-      <c r="L104" s="30">
-        <v>0.24</v>
-      </c>
-      <c r="M104" s="39"/>
-      <c r="O104" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="P104" s="10"/>
-      <c r="Q104" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="R104" s="32">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="105" spans="8:18" ht="18" x14ac:dyDescent="0.25">
       <c r="H105" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I105" s="29" t="s">
+      <c r="I105" s="13">
+        <v>22.9</v>
+      </c>
+      <c r="J105" s="13">
+        <v>29.5</v>
+      </c>
+      <c r="K105" s="14">
+        <f t="shared" si="19"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P105" s="14">
+        <f t="shared" si="25"/>
+        <v>0.39260597302504813</v>
+      </c>
+      <c r="Q105" s="14">
+        <f t="shared" si="25"/>
+        <v>0.10325348587772615</v>
+      </c>
+      <c r="R105" s="14">
+        <f>Q105-P105</f>
+        <v>-0.28935248714732198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="14">
+        <f t="shared" ref="B106:C107" si="28">B117*100/B$112</f>
+        <v>23.090439276485785</v>
+      </c>
+      <c r="C106" s="14">
+        <f t="shared" si="28"/>
+        <v>25.6764090793165</v>
+      </c>
+      <c r="D106" s="14">
+        <f t="shared" ref="D106" si="29">C106-B106</f>
+        <v>2.5859698028307143</v>
+      </c>
+      <c r="E106" s="14">
+        <f t="shared" si="22"/>
+        <v>15.341522157996147</v>
+      </c>
+      <c r="F106" s="14">
+        <f t="shared" si="23"/>
+        <v>17.045334286735788</v>
+      </c>
+      <c r="G106" s="14">
+        <f t="shared" ref="G106" si="30">F106-E106</f>
+        <v>1.7038121287396404</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="13">
+        <v>32.1</v>
+      </c>
+      <c r="J106" s="13">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K106" s="14">
+        <f t="shared" si="19"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P106" s="14">
+        <f t="shared" si="25"/>
+        <v>15.341522157996147</v>
+      </c>
+      <c r="Q106" s="14">
+        <f t="shared" si="25"/>
+        <v>17.045334286735788</v>
+      </c>
+      <c r="R106" s="14">
+        <f t="shared" ref="R106" si="31">Q106-P106</f>
+        <v>1.7038121287396404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" s="14">
+        <f t="shared" si="28"/>
+        <v>15.738730979041057</v>
+      </c>
+      <c r="C107" s="14">
+        <f t="shared" si="28"/>
+        <v>17.695970415710278</v>
+      </c>
+      <c r="D107" s="14">
+        <f>C107-B107</f>
+        <v>1.9572394366692212</v>
+      </c>
+      <c r="E107" s="14">
+        <f t="shared" si="22"/>
+        <v>21.233381502890175</v>
+      </c>
+      <c r="F107" s="14">
+        <f t="shared" si="23"/>
+        <v>21.558491240614945</v>
+      </c>
+      <c r="G107" s="14">
+        <f>F107-E107</f>
+        <v>0.32510973772476959</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="O107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P107" s="14">
+        <f t="shared" si="25"/>
+        <v>21.233381502890175</v>
+      </c>
+      <c r="Q107" s="14">
+        <f t="shared" si="25"/>
+        <v>21.558491240614945</v>
+      </c>
+      <c r="R107" s="14">
+        <f>Q107-P107</f>
+        <v>0.32510973772476959</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="24">
+        <f>100-SUM(B102:B107)</f>
+        <v>32.124318116566187</v>
+      </c>
+      <c r="C108" s="24">
+        <f t="shared" ref="C108:F108" si="32">100-SUM(C102:C107)</f>
+        <v>32.569854628921206</v>
+      </c>
+      <c r="D108" s="24">
+        <f t="shared" si="32"/>
+        <v>100.44553651235502</v>
+      </c>
+      <c r="E108" s="24">
+        <f t="shared" si="32"/>
+        <v>14.441570327552995</v>
+      </c>
+      <c r="F108" s="24">
+        <f t="shared" si="32"/>
+        <v>14.963103324991053</v>
+      </c>
+      <c r="G108" s="15">
+        <f>F108-E108</f>
+        <v>0.52153299743805803</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" s="14">
+        <f>I116*100/I115</f>
+        <v>85.549132947976886</v>
+      </c>
+      <c r="J108" s="14">
+        <f>J116*100/J115</f>
+        <v>85.037540221666063</v>
+      </c>
+      <c r="K108" s="14">
+        <f t="shared" ref="K108:K109" si="33">J108-I108</f>
+        <v>-0.51159272631082331</v>
+      </c>
+      <c r="O108" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P108" s="24">
+        <f t="shared" ref="P108:Q108" si="34">100-SUM(P102:P107)</f>
+        <v>14.441570327552995</v>
+      </c>
+      <c r="Q108" s="24">
+        <f t="shared" si="34"/>
+        <v>14.963103324991053</v>
+      </c>
+      <c r="R108" s="15">
+        <f>Q108-P108</f>
+        <v>0.52153299743805803</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H109" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="15">
+        <f>I117*100/I115</f>
+        <v>14.446050096339114</v>
+      </c>
+      <c r="J109" s="15">
+        <f>J117*100/J115</f>
+        <v>14.962459778333928</v>
+      </c>
+      <c r="K109" s="15">
+        <f t="shared" si="33"/>
+        <v>0.51640968199481385</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112">
+        <v>0.3483</v>
+      </c>
+      <c r="C112">
+        <v>0.3921</v>
+      </c>
+      <c r="E112">
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="F112">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="O112" t="s">
+        <v>11</v>
+      </c>
+      <c r="P112">
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="Q112">
+        <v>0.55940000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113">
+        <v>4.6078000000000001E-2</v>
+      </c>
+      <c r="C113">
+        <v>4.4554200000000002E-2</v>
+      </c>
+      <c r="E113">
+        <v>0.14152480000000001</v>
+      </c>
+      <c r="F113">
+        <v>0.17017080000000001</v>
+      </c>
+      <c r="O113" t="s">
+        <v>16</v>
+      </c>
+      <c r="P113">
+        <v>0.14152480000000001</v>
+      </c>
+      <c r="Q113">
+        <v>0.17017080000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114">
+        <v>5.0536999999999999E-2</v>
+      </c>
+      <c r="C114">
+        <v>4.5256999999999999E-2</v>
+      </c>
+      <c r="E114">
+        <v>5.9266899999999997E-2</v>
+      </c>
+      <c r="F114">
+        <v>8.6513699999999999E-2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>17</v>
+      </c>
+      <c r="P114">
+        <v>5.9266899999999997E-2</v>
+      </c>
+      <c r="Q114">
+        <v>8.6513699999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115">
+        <v>3.522E-3</v>
+      </c>
+      <c r="C115">
+        <v>3.6467000000000001E-3</v>
+      </c>
+      <c r="E115">
+        <v>9.5779999999999997E-4</v>
+      </c>
+      <c r="F115">
+        <v>2.4845000000000002E-3</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="J115" s="16">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="O115" t="s">
+        <v>21</v>
+      </c>
+      <c r="P115">
+        <v>9.5779999999999997E-4</v>
+      </c>
+      <c r="Q115">
+        <v>2.4845000000000002E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116">
+        <v>1.0319999999999999E-3</v>
+      </c>
+      <c r="C116">
+        <v>8.7259999999999996E-4</v>
+      </c>
+      <c r="E116">
+        <v>1.6301E-3</v>
+      </c>
+      <c r="F116">
+        <v>5.7760000000000005E-4</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0.35520000000000002</v>
+      </c>
+      <c r="J116" s="16">
+        <v>0.47570000000000001</v>
+      </c>
+      <c r="O116" t="s">
+        <v>18</v>
+      </c>
+      <c r="P116">
+        <v>1.6301E-3</v>
+      </c>
+      <c r="Q116">
+        <v>5.7760000000000005E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117">
+        <v>8.0423999999999995E-2</v>
+      </c>
+      <c r="C117">
+        <v>0.10067719999999999</v>
+      </c>
+      <c r="E117">
+        <v>6.3698000000000005E-2</v>
+      </c>
+      <c r="F117">
+        <v>9.5351599999999995E-2</v>
+      </c>
+      <c r="I117" s="1">
+        <v>5.9979999999999999E-2</v>
+      </c>
+      <c r="J117" s="17">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>20</v>
+      </c>
+      <c r="P117">
+        <v>6.3698000000000005E-2</v>
+      </c>
+      <c r="Q117">
+        <v>9.5351599999999995E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118">
+        <v>5.4817999999999999E-2</v>
+      </c>
+      <c r="C118">
+        <v>6.93859E-2</v>
+      </c>
+      <c r="E118">
+        <v>8.8161000000000003E-2</v>
+      </c>
+      <c r="F118">
+        <v>0.1205982</v>
+      </c>
+      <c r="O118" t="s">
+        <v>19</v>
+      </c>
+      <c r="P118">
+        <v>8.8161000000000003E-2</v>
+      </c>
+      <c r="Q118">
+        <v>0.1205982</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119">
+        <v>0.1119</v>
+      </c>
+      <c r="C119">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="E119">
+        <v>5.9979999999999999E-2</v>
+      </c>
+      <c r="F119">
+        <v>8.3720000000000003E-2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>27</v>
+      </c>
+      <c r="P119">
+        <v>5.9979999999999999E-2</v>
+      </c>
+      <c r="Q119">
+        <v>8.3720000000000003E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O125" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H126" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="O126" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P126" s="25"/>
+      <c r="Q126" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="R126" s="27"/>
+    </row>
+    <row r="127" spans="1:19" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L127" s="34"/>
+      <c r="M127" s="37"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R127" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S127" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H128" s="10"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="11">
+        <v>1991</v>
+      </c>
+      <c r="L128" s="11">
+        <v>2011</v>
+      </c>
+      <c r="M128" s="38"/>
+      <c r="O128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P128" s="3"/>
+    </row>
+    <row r="129" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H129" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K105" s="28">
+      <c r="K129" s="28">
+        <v>55600</v>
+      </c>
+      <c r="L129" s="28">
+        <v>71380</v>
+      </c>
+      <c r="M129" s="39"/>
+      <c r="O129" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="28">
+        <v>22500</v>
+      </c>
+      <c r="R129" s="28">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="130" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H130" s="3"/>
+      <c r="I130" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K130" s="30">
+        <v>0.39</v>
+      </c>
+      <c r="L130" s="30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M130" s="39"/>
+      <c r="O130" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="30">
+        <v>0.39</v>
+      </c>
+      <c r="R130" s="30">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="131" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I131" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K131" s="28">
+        <v>75700</v>
+      </c>
+      <c r="L131" s="28">
+        <v>85020</v>
+      </c>
+      <c r="M131" s="39"/>
+      <c r="O131" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P131" s="3"/>
+    </row>
+    <row r="132" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H132" s="3"/>
+      <c r="I132" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K132" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="L132" s="30">
+        <v>0.38</v>
+      </c>
+      <c r="M132" s="39"/>
+      <c r="O132" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="28">
+        <v>55400</v>
+      </c>
+      <c r="R132" s="28">
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="133" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H133" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I133" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K133" s="28">
+        <v>46100</v>
+      </c>
+      <c r="L133" s="28">
+        <v>48920</v>
+      </c>
+      <c r="M133" s="39"/>
+      <c r="O133" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="30">
+        <v>0.31</v>
+      </c>
+      <c r="R133" s="30">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="134" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H134" s="3"/>
+      <c r="I134" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K134" s="36">
+        <v>0.17</v>
+      </c>
+      <c r="L134" s="30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M134" s="39"/>
+      <c r="O134" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="28"/>
+      <c r="R134" s="28"/>
+    </row>
+    <row r="135" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K135" s="28">
+        <v>73950</v>
+      </c>
+      <c r="L135" s="28">
+        <v>68700</v>
+      </c>
+      <c r="M135" s="39"/>
+      <c r="O135" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="28">
+        <v>34800</v>
+      </c>
+      <c r="R135" s="28">
+        <v>49348</v>
+      </c>
+    </row>
+    <row r="136" spans="8:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H136" s="3"/>
+      <c r="I136" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K136" s="30">
+        <v>0.18</v>
+      </c>
+      <c r="L136" s="30">
+        <v>0.24</v>
+      </c>
+      <c r="M136" s="39"/>
+      <c r="O136" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="R136" s="32">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H137" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K137" s="28">
         <v>38800</v>
       </c>
-      <c r="L105" s="28">
+      <c r="L137" s="28">
         <v>37200</v>
       </c>
-      <c r="M105" s="39"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="28"/>
-      <c r="R105" s="28"/>
-    </row>
-    <row r="106" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H106" s="3"/>
-      <c r="I106" s="29" t="s">
+      <c r="M137" s="39"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="28"/>
+      <c r="R137" s="28"/>
+    </row>
+    <row r="138" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H138" s="3"/>
+      <c r="I138" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K106" s="30">
+      <c r="K138" s="30">
         <v>0.36</v>
       </c>
-      <c r="L106" s="30">
+      <c r="L138" s="30">
         <v>0.46</v>
       </c>
-      <c r="M106" s="39"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-      <c r="Q106" s="28"/>
-      <c r="R106" s="28"/>
-    </row>
-    <row r="107" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H107" s="3" t="s">
+      <c r="M138" s="39"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="28"/>
+      <c r="R138" s="28"/>
+    </row>
+    <row r="139" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H139" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I107" s="29" t="s">
+      <c r="I139" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K107" s="28">
+      <c r="K139" s="28">
         <v>31000</v>
       </c>
-      <c r="L107" s="28">
+      <c r="L139" s="28">
         <v>37950</v>
       </c>
-      <c r="M107" s="39"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="28"/>
-      <c r="R107" s="28"/>
-    </row>
-    <row r="108" spans="8:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H108" s="35"/>
-      <c r="I108" s="31" t="s">
+      <c r="M139" s="39"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="28"/>
+      <c r="R139" s="28"/>
+    </row>
+    <row r="140" spans="8:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H140" s="35"/>
+      <c r="I140" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J108" s="2"/>
-      <c r="K108" s="32">
+      <c r="J140" s="2"/>
+      <c r="K140" s="32">
         <v>0.41</v>
       </c>
-      <c r="L108" s="32">
+      <c r="L140" s="32">
         <v>0.48</v>
       </c>
-      <c r="M108" s="39"/>
-      <c r="O108" t="s">
+      <c r="M140" s="39"/>
+      <c r="O140" t="s">
         <v>11</v>
       </c>
-      <c r="P108" s="1">
+      <c r="P140" s="1">
         <v>0.41149999999999998</v>
       </c>
-      <c r="Q108" s="1">
+      <c r="Q140" s="1">
         <v>0.56259999999999999</v>
       </c>
-      <c r="R108" s="28"/>
-    </row>
-    <row r="109" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="O109" t="s">
+      <c r="R140" s="28"/>
+    </row>
+    <row r="141" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="O141" t="s">
         <v>1</v>
       </c>
-      <c r="P109" s="1">
+      <c r="P141" s="1">
         <v>1.9519999999999999E-2</v>
       </c>
-      <c r="Q109" s="17">
+      <c r="Q141" s="17">
         <v>1.9740000000000001E-2</v>
       </c>
     </row>
-    <row r="110" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="O110" t="s">
+    <row r="142" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="O142" t="s">
         <v>2</v>
       </c>
-      <c r="P110" s="1">
+      <c r="P142" s="1">
         <v>0.22023999999999999</v>
       </c>
-      <c r="Q110" s="17">
+      <c r="Q142" s="17">
         <v>0.34243000000000001</v>
       </c>
     </row>
-    <row r="111" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="O111" t="s">
+    <row r="143" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="O143" t="s">
         <v>3</v>
       </c>
-      <c r="P111" s="1">
+      <c r="P143" s="1">
         <v>0.13891000000000001</v>
       </c>
-      <c r="Q111" s="17">
+      <c r="Q143" s="17">
         <v>0.14660000000000001</v>
       </c>
     </row>
@@ -3232,7 +3733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3244,7 +3745,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analyses Oli/Within and between tables.xlsx
+++ b/analyses Oli/Within and between tables.xlsx
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,6 +541,7 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67:K79"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O100" sqref="O100:R108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2649,12 +2650,12 @@
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="O99" s="21" t="s">
+      <c r="O99" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="P99" s="2"/>
-    </row>
-    <row r="100" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P99" s="37"/>
+    </row>
+    <row r="100" spans="1:18" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>15</v>
       </c>
@@ -2678,14 +2679,14 @@
       <c r="K100" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="O100" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="P100" s="8" t="s">
+      <c r="P100" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
+      <c r="Q100" s="27"/>
+      <c r="R100" s="27"/>
     </row>
     <row r="101" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
@@ -2731,7 +2732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>16</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>-3.6656985222950809</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>17</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>1.1911435783453665</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>21</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>0.21345256719455125</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>18</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>-0.28935248714732198</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>20</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>1.7038121287396404</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>19</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>0.32510973772476959</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="23" t="s">
         <v>27</v>
       </c>
